--- a/miniprogram/pages/猫咪档案.xlsx
+++ b/miniprogram/pages/猫咪档案.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/circle/Documents/GitHub/WanliuMeow/miniprogram/pages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0326BD83-477F-4341-81FA-CEF3CDA07869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55999941-D511-6440-B24A-D7A1024FA325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="44680" windowHeight="22560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="1760" windowWidth="31500" windowHeight="18500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="万柳喵" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="174">
   <si>
     <t>建立档案：2022-04-06</t>
   </si>
@@ -545,6 +545,9 @@
     <t>嫖嫖</t>
   </si>
   <si>
+    <t>2020年03月</t>
+  </si>
+  <si>
     <t>俊俏的狸花弟弟 白手套白围脖白鼻梁 白色中筒靴 蝴蝶嘴非常好看</t>
   </si>
   <si>
@@ -563,19 +566,94 @@
     <t>小可</t>
   </si>
   <si>
-    <t>name</t>
+    <t>最胖的那只就是，眼神凶狠，双侧耳缺，毛色比name浅</t>
+  </si>
+  <si>
+    <t>渣渣辉的姐妹，统领name、阿狸等一干小弟称王称霸，跟大白关系暧昧</t>
+  </si>
+  <si>
+    <t>拥有第一吃饭权，辅助抓获阿橙和阿狸，猫中间谍</t>
+  </si>
+  <si>
+    <t>内姆</t>
+  </si>
+  <si>
+    <t>鼻子上有黑点，微笑唇，毛色比小可深</t>
+  </si>
+  <si>
+    <t>炸鸡、面包、nature、霖霖的妈妈，喜欢和小可贴贴</t>
+  </si>
+  <si>
+    <t>母随子姓，随nature姓内</t>
   </si>
   <si>
     <t>阿橙</t>
   </si>
   <si>
+    <t>2022年03月22号</t>
+  </si>
+  <si>
+    <t>2019年03月</t>
+  </si>
+  <si>
+    <t>白领巾 两只白袜子</t>
+  </si>
+  <si>
+    <t>阿黄的好朋友</t>
+  </si>
+  <si>
+    <t>性格刚烈 大闹宠物医院 报复心强 绝育完在笼子里拉了很多粑粑</t>
+  </si>
+  <si>
     <t>阿黄</t>
   </si>
   <si>
-    <t>橘姥姥</t>
+    <t>2022年02月28号</t>
+  </si>
+  <si>
+    <t>2021年02月</t>
+  </si>
+  <si>
+    <t>好看的橘白猫 脸上白多 白领巾</t>
+  </si>
+  <si>
+    <t>阿橙的好朋友</t>
+  </si>
+  <si>
+    <t>阿黄的好朋友 一个大冤种 误入本来要抓捕阿橙的笼子</t>
   </si>
   <si>
     <t>咪猫</t>
+  </si>
+  <si>
+    <t>2021年06月12号</t>
+  </si>
+  <si>
+    <t>有点好看的狸花猫，蝴蝶嘴，白胸毛白爪子，很胖尾巴很粗</t>
+  </si>
+  <si>
+    <t>和谁的关系都不好</t>
+  </si>
+  <si>
+    <t>性格孤僻乖张，总喜欢瞪着人</t>
+  </si>
+  <si>
+    <t>北冰洋</t>
+  </si>
+  <si>
+    <t>2022年04月13号</t>
+  </si>
+  <si>
+    <t>2014年04月</t>
+  </si>
+  <si>
+    <t>中分头橘白，白多橘少，橘色裤衩橘色尾巴</t>
+  </si>
+  <si>
+    <t>曾有舌下腺囊肿，手术后恢复</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -585,7 +663,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,6 +680,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -626,6 +710,11 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -643,6 +732,20 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -869,11 +972,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -916,15 +1019,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -937,10 +1041,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,7 +1066,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1005,25 +1115,34 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1032,7 +1151,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1059,6 +1178,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1090,18 +1222,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1384,9 +1504,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC595"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="103" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1429,7 +1549,7 @@
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -1438,72 +1558,72 @@
     </row>
     <row r="2" spans="1:29">
       <c r="E2" s="2"/>
-      <c r="I2" s="19"/>
+      <c r="I2" s="20"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="11"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="70" t="s">
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="71"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="33" t="s">
+      <c r="K3" s="82"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="37" t="s">
         <v>9</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="35" t="s">
+      <c r="P3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="47"/>
+      <c r="Q3" s="53"/>
       <c r="R3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="48">
+      <c r="S3" s="54">
         <v>6</v>
       </c>
-      <c r="T3" s="49" t="s">
+      <c r="T3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="78" t="s">
+      <c r="U3" s="74" t="s">
         <v>14</v>
       </c>
       <c r="V3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="W3" s="10"/>
-      <c r="X3" s="48">
+      <c r="X3" s="54">
         <v>0</v>
       </c>
-      <c r="Y3" s="52" t="s">
+      <c r="Y3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="60" t="s">
+      <c r="AA3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="AB3" s="61" t="s">
+      <c r="AB3" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="64" t="s">
+      <c r="AC3" s="70" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1515,70 +1635,70 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="20"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="36" t="s">
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="39" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="4"/>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="47"/>
+      <c r="Q4" s="53"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="50">
+      <c r="S4" s="56">
         <v>5</v>
       </c>
-      <c r="T4" s="51" t="s">
+      <c r="T4" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="79"/>
+      <c r="U4" s="75"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
-      <c r="X4" s="55" t="s">
+      <c r="X4" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="Y4" s="62" t="s">
+      <c r="Y4" s="68" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="38" t="s">
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="41" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="4"/>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="47"/>
+      <c r="Q5" s="53"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="50">
+      <c r="S5" s="56">
         <v>4</v>
       </c>
-      <c r="T5" s="51" t="s">
+      <c r="T5" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="79"/>
+      <c r="U5" s="75"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
@@ -1592,42 +1712,42 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="22"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="21"/>
+      <c r="P6" s="22"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="50">
+      <c r="S6" s="56">
         <v>3</v>
       </c>
-      <c r="T6" s="51" t="s">
+      <c r="T6" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="75" t="s">
         <v>29</v>
       </c>
       <c r="V6" s="10" t="s">
         <v>30</v>
       </c>
       <c r="W6" s="10"/>
-      <c r="X6" s="48">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="52" t="s">
+      <c r="X6" s="54">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="AA6" s="60" t="s">
+      <c r="AA6" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="AB6" s="61" t="s">
+      <c r="AB6" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="AC6" s="64" t="s">
+      <c r="AC6" s="70" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1640,35 +1760,35 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="21"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
       <c r="N7" s="4"/>
       <c r="O7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="40" t="s">
+      <c r="P7" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="52" t="s">
+      <c r="Q7" s="58" t="s">
         <v>36</v>
       </c>
       <c r="R7" s="4"/>
-      <c r="S7" s="50">
+      <c r="S7" s="56">
         <v>2</v>
       </c>
-      <c r="T7" s="51" t="s">
+      <c r="T7" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="79"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
-      <c r="X7" s="50">
+      <c r="X7" s="56">
         <v>2</v>
       </c>
-      <c r="Y7" s="63" t="s">
+      <c r="Y7" s="69" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1681,35 +1801,35 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="21"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="41" t="s">
+      <c r="P8" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="53" t="s">
+      <c r="Q8" s="59" t="s">
         <v>40</v>
       </c>
       <c r="R8" s="4"/>
-      <c r="S8" s="50">
-        <v>1</v>
-      </c>
-      <c r="T8" s="51" t="s">
+      <c r="S8" s="56">
+        <v>1</v>
+      </c>
+      <c r="T8" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="U8" s="79" t="s">
+      <c r="U8" s="75" t="s">
         <v>42</v>
       </c>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
-      <c r="X8" s="50">
+      <c r="X8" s="56">
         <v>3</v>
       </c>
-      <c r="Y8" s="63" t="s">
+      <c r="Y8" s="69" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1722,33 +1842,33 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="21"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="41" t="s">
+      <c r="P9" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" s="54" t="s">
+      <c r="Q9" s="60" t="s">
         <v>45</v>
       </c>
       <c r="R9" s="4"/>
-      <c r="S9" s="50">
+      <c r="S9" s="56">
         <v>0</v>
       </c>
-      <c r="T9" s="51" t="s">
+      <c r="T9" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="U9" s="79"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
-      <c r="X9" s="50">
+      <c r="X9" s="56">
         <v>4</v>
       </c>
-      <c r="Y9" s="63" t="s">
+      <c r="Y9" s="69" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1757,41 +1877,41 @@
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="21"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="4" t="s">
         <v>48</v>
       </c>
       <c r="K10" s="4"/>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="21"/>
+      <c r="M10" s="22"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="76" t="s">
+      <c r="P10" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="47" t="s">
+      <c r="Q10" s="53" t="s">
         <v>51</v>
       </c>
       <c r="R10" s="4"/>
-      <c r="S10" s="55">
+      <c r="S10" s="61">
         <v>-1</v>
       </c>
-      <c r="T10" s="56" t="s">
+      <c r="T10" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="U10" s="58"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
-      <c r="X10" s="55">
+      <c r="X10" s="61">
         <v>5</v>
       </c>
-      <c r="Y10" s="62" t="s">
+      <c r="Y10" s="68" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1807,19 +1927,19 @@
         <v>54</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="22"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="17" t="s">
         <v>54</v>
       </c>
       <c r="K11" s="4"/>
-      <c r="L11" s="23" t="s">
+      <c r="L11" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="21"/>
+      <c r="M11" s="22"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="57"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="63"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -1856,7 +1976,7 @@
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="22" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -1865,10 +1985,10 @@
       <c r="K12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="22" t="s">
         <v>68</v>
       </c>
       <c r="N12" s="4" t="s">
@@ -1877,10 +1997,10 @@
       <c r="O12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="P12" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="51" t="s">
+      <c r="Q12" s="57" t="s">
         <v>72</v>
       </c>
       <c r="R12" s="4" t="s">
@@ -1927,26 +2047,26 @@
         <v>2</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="24">
-        <v>1</v>
-      </c>
-      <c r="J13" s="25" t="s">
+      <c r="I13" s="25">
+        <v>1</v>
+      </c>
+      <c r="J13" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="26">
-        <v>1</v>
-      </c>
-      <c r="L13" s="27" t="s">
+      <c r="K13" s="27">
+        <v>1</v>
+      </c>
+      <c r="L13" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="42" t="s">
+      <c r="M13" s="29"/>
+      <c r="N13" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="O13" s="43">
+      <c r="O13" s="46">
         <v>0</v>
       </c>
-      <c r="P13" s="44" t="s">
+      <c r="P13" s="47" t="s">
         <v>84</v>
       </c>
       <c r="Q13" s="14"/>
@@ -1955,7 +2075,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="59"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
@@ -1980,26 +2100,26 @@
         <v>4</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="24">
+      <c r="I14" s="25">
         <v>0</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="26">
-        <v>1</v>
-      </c>
-      <c r="L14" s="28" t="s">
+      <c r="K14" s="27">
+        <v>1</v>
+      </c>
+      <c r="L14" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="M14" s="28"/>
-      <c r="N14" s="42" t="s">
+      <c r="M14" s="29"/>
+      <c r="N14" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="O14" s="43">
+      <c r="O14" s="46">
         <v>2</v>
       </c>
-      <c r="P14" s="45" t="s">
+      <c r="P14" s="48" t="s">
         <v>84</v>
       </c>
       <c r="Q14" s="14"/>
@@ -2008,7 +2128,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="59"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="4" t="s">
         <v>90</v>
       </c>
@@ -2037,24 +2157,24 @@
         <v>1</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="29">
-        <v>1</v>
-      </c>
-      <c r="J15" s="26" t="s">
+      <c r="I15" s="30">
+        <v>1</v>
+      </c>
+      <c r="J15" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="25">
-        <v>1</v>
-      </c>
-      <c r="L15" s="27"/>
-      <c r="M15" s="28"/>
+      <c r="K15" s="26">
+        <v>1</v>
+      </c>
+      <c r="L15" s="28"/>
+      <c r="M15" s="29"/>
       <c r="N15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="O15" s="46">
+      <c r="O15" s="49">
         <v>6</v>
       </c>
-      <c r="P15" s="44" t="s">
+      <c r="P15" s="47" t="s">
         <v>84</v>
       </c>
       <c r="Q15" s="14"/>
@@ -2094,26 +2214,26 @@
         <v>2</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="29">
-        <v>1</v>
-      </c>
-      <c r="J16" s="30" t="s">
+      <c r="I16" s="30">
+        <v>1</v>
+      </c>
+      <c r="J16" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="26">
-        <v>1</v>
-      </c>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28" t="s">
+      <c r="K16" s="27">
+        <v>1</v>
+      </c>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="N16" s="42" t="s">
+      <c r="N16" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="O16" s="46">
+      <c r="O16" s="49">
         <v>6</v>
       </c>
-      <c r="P16" s="45" t="s">
+      <c r="P16" s="48" t="s">
         <v>102</v>
       </c>
       <c r="Q16" s="14"/>
@@ -2122,7 +2242,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="46" t="s">
+      <c r="U16" s="49" t="s">
         <v>97</v>
       </c>
       <c r="V16" s="4"/>
@@ -2149,26 +2269,26 @@
         <v>4</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="29">
+      <c r="I17" s="30">
         <v>0</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="26">
-        <v>1</v>
-      </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28" t="s">
+      <c r="K17" s="27">
+        <v>1</v>
+      </c>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29" t="s">
         <v>97</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="O17" s="25">
+      <c r="O17" s="26">
         <v>6</v>
       </c>
-      <c r="P17" s="44" t="s">
+      <c r="P17" s="47" t="s">
         <v>102</v>
       </c>
       <c r="Q17" s="14"/>
@@ -2177,7 +2297,7 @@
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="46" t="s">
+      <c r="U17" s="49" t="s">
         <v>108</v>
       </c>
       <c r="V17" s="4"/>
@@ -2204,30 +2324,30 @@
         <v>2</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="29">
-        <v>1</v>
-      </c>
-      <c r="J18" s="26" t="s">
+      <c r="I18" s="30">
+        <v>1</v>
+      </c>
+      <c r="J18" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="26">
-        <v>1</v>
-      </c>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28" t="s">
+      <c r="K18" s="27">
+        <v>1</v>
+      </c>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="N18" s="42" t="s">
+      <c r="N18" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="O18" s="25">
+      <c r="O18" s="26">
         <v>6</v>
       </c>
-      <c r="P18" s="44" t="s">
+      <c r="P18" s="47" t="s">
         <v>102</v>
       </c>
       <c r="Q18" s="14"/>
-      <c r="R18" s="42" t="s">
+      <c r="R18" s="45" t="s">
         <v>103</v>
       </c>
       <c r="S18" s="4"/>
@@ -2257,26 +2377,26 @@
       <c r="G19" s="5">
         <v>2</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="32">
         <v>0</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="32">
         <v>0</v>
       </c>
-      <c r="L19" s="26"/>
-      <c r="M19" s="28" t="s">
+      <c r="L19" s="27"/>
+      <c r="M19" s="29" t="s">
         <v>97</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="O19" s="31">
+      <c r="O19" s="32">
         <v>6</v>
       </c>
-      <c r="P19" s="44" t="s">
+      <c r="P19" s="47" t="s">
         <v>102</v>
       </c>
       <c r="R19" s="5" t="s">
@@ -2307,17 +2427,17 @@
       <c r="G20" s="5">
         <v>2</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="32">
         <v>-1</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="32">
         <v>-1</v>
       </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="28"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="29"/>
       <c r="N20" s="5" t="s">
         <v>117</v>
       </c>
@@ -2357,7 +2477,7 @@
       <c r="L21" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M21" s="28"/>
+      <c r="M21" s="29"/>
       <c r="N21" s="1" t="s">
         <v>122</v>
       </c>
@@ -2399,7 +2519,7 @@
       <c r="L22" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="M22" s="28"/>
+      <c r="M22" s="29"/>
       <c r="N22" s="1" t="s">
         <v>127</v>
       </c>
@@ -2444,7 +2564,7 @@
       <c r="L23" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M23" s="28"/>
+      <c r="M23" s="29"/>
       <c r="N23" s="1" t="s">
         <v>132</v>
       </c>
@@ -2480,17 +2600,17 @@
       <c r="I24" s="1">
         <v>1</v>
       </c>
-      <c r="J24" s="25" t="s">
+      <c r="J24" s="26" t="s">
         <v>81</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
       </c>
-      <c r="M24" s="32">
-        <v>44256</v>
+      <c r="M24" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O24" s="1">
         <v>1</v>
@@ -2502,7 +2622,7 @@
         <v>95</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:25" s="1" customFormat="1">
@@ -2510,7 +2630,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -2524,17 +2644,17 @@
       <c r="I25" s="1">
         <v>0</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="26" t="s">
         <v>81</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
       </c>
-      <c r="M25" s="32">
-        <v>44256</v>
+      <c r="M25" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O25" s="1">
         <v>0</v>
@@ -2543,56 +2663,274 @@
         <v>84</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:25" s="1" customFormat="1">
-      <c r="B26" s="16">
+      <c r="B26" s="15">
         <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:25" s="1" customFormat="1">
-      <c r="B27" s="16">
+      <c r="B27" s="15">
         <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>143</v>
+        <v>173</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:25" s="1" customFormat="1">
-      <c r="B28" s="16">
+      <c r="B28" s="15">
         <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
+      </c>
+      <c r="D28" s="16">
+        <v>1</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="16">
+        <v>2</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="33">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" s="16">
+        <v>1</v>
+      </c>
+      <c r="L28" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="M28" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="N28" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="O28" s="19">
+        <v>0</v>
+      </c>
+      <c r="P28" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="S28" s="16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:25" s="1" customFormat="1">
-      <c r="B29" s="16">
+      <c r="B29" s="15">
         <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L29" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="D29" s="16">
+        <v>2</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="19">
+        <v>2</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="33">
+        <v>1</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="16">
+        <v>1</v>
+      </c>
+      <c r="L29" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="M29" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="N29" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="O29" s="19">
+        <v>0</v>
+      </c>
+      <c r="P29" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="30" spans="1:25" s="1" customFormat="1">
-      <c r="B30" s="16">
+      <c r="B30" s="15">
         <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>146</v>
+        <v>163</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="33">
+        <v>1</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:25" s="1" customFormat="1">
-      <c r="B31" s="16">
+      <c r="B31" s="15">
         <v>19</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="M31" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:25" s="1" customFormat="1"/>
@@ -3172,6 +3510,7 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
 </worksheet>

--- a/miniprogram/pages/猫咪档案.xlsx
+++ b/miniprogram/pages/猫咪档案.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/circle/Documents/GitHub/WanliuMeow/miniprogram/pages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55999941-D511-6440-B24A-D7A1024FA325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DED8316-FE2C-9340-92CD-99FDD4F50444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="1760" windowWidth="31500" windowHeight="18500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -976,7 +976,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -985,9 +985,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1003,225 +1000,188 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1504,9 +1464,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC595"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1514,32 +1474,32 @@
     <col min="1" max="1" width="8.83203125" style="2"/>
     <col min="2" max="2" width="8.83203125" style="3"/>
     <col min="3" max="3" width="8.83203125" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="5"/>
-    <col min="7" max="7" width="12" style="5" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="6"/>
-    <col min="10" max="10" width="10.33203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="5"/>
-    <col min="12" max="12" width="12.83203125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="15" style="7" customWidth="1"/>
-    <col min="14" max="14" width="40.33203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="24.33203125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="21.5" style="5" customWidth="1"/>
-    <col min="18" max="18" width="22.33203125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="20.5" style="5" customWidth="1"/>
-    <col min="20" max="20" width="18.83203125" style="5" customWidth="1"/>
-    <col min="21" max="21" width="20.1640625" style="5" customWidth="1"/>
-    <col min="22" max="23" width="17.6640625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="15.5" style="9" customWidth="1"/>
-    <col min="25" max="25" width="12.5" style="5" customWidth="1"/>
-    <col min="26" max="26" width="8.83203125" style="5"/>
-    <col min="27" max="27" width="13.5" style="5" customWidth="1"/>
-    <col min="28" max="28" width="8.83203125" style="5"/>
-    <col min="29" max="29" width="10.6640625" style="5" customWidth="1"/>
-    <col min="30" max="16384" width="8.83203125" style="5"/>
+    <col min="4" max="4" width="15.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="4"/>
+    <col min="7" max="7" width="12" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="5"/>
+    <col min="10" max="10" width="10.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="4"/>
+    <col min="12" max="12" width="12.83203125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="15" style="6" customWidth="1"/>
+    <col min="14" max="14" width="40.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="24.33203125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="21.5" style="4" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="20.5" style="4" customWidth="1"/>
+    <col min="20" max="20" width="18.83203125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="20.1640625" style="4" customWidth="1"/>
+    <col min="22" max="23" width="17.6640625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="15.5" style="8" customWidth="1"/>
+    <col min="25" max="25" width="12.5" style="4" customWidth="1"/>
+    <col min="26" max="26" width="8.83203125" style="4"/>
+    <col min="27" max="27" width="13.5" style="4" customWidth="1"/>
+    <col min="28" max="28" width="8.83203125" style="4"/>
+    <col min="29" max="29" width="10.6640625" style="4" customWidth="1"/>
+    <col min="30" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -1549,413 +1509,323 @@
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="E2" s="2"/>
-      <c r="I2" s="20"/>
+      <c r="I2" s="15"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="78" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="3"/>
+      <c r="F3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="81" t="s">
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="36" t="s">
+      <c r="K3" s="68"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="54">
+      <c r="S3" s="43">
         <v>6</v>
       </c>
-      <c r="T3" s="55" t="s">
+      <c r="T3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="74" t="s">
+      <c r="U3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="10"/>
-      <c r="X3" s="54">
+      <c r="W3" s="9"/>
+      <c r="X3" s="43">
         <v>0</v>
       </c>
-      <c r="Y3" s="58" t="s">
+      <c r="Y3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="66" t="s">
+      <c r="AA3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AB3" s="67" t="s">
+      <c r="AB3" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="70" t="s">
+      <c r="AC3" s="56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="39" t="s">
+      <c r="E4" s="2"/>
+      <c r="I4" s="15"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="40" t="s">
+      <c r="P4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="56">
+      <c r="S4" s="45">
         <v>5</v>
       </c>
-      <c r="T4" s="57" t="s">
+      <c r="T4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="75"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="61" t="s">
+      <c r="U4" s="61"/>
+      <c r="X4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Y4" s="68" t="s">
+      <c r="Y4" s="49" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="76" t="s">
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="H5" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="41" t="s">
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="56">
+      <c r="S5" s="45">
         <v>4</v>
       </c>
-      <c r="T5" s="57" t="s">
+      <c r="T5" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="75"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
+      <c r="U5" s="61"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="56">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="S6" s="45">
         <v>3</v>
       </c>
-      <c r="T6" s="57" t="s">
+      <c r="T6" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="V6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="W6" s="10"/>
-      <c r="X6" s="54">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="58" t="s">
+      <c r="W6" s="9"/>
+      <c r="X6" s="43">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="AA6" s="66" t="s">
+      <c r="AA6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AB6" s="67" t="s">
+      <c r="AB6" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="AC6" s="70" t="s">
+      <c r="AC6" s="56" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="10" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="O7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="43" t="s">
+      <c r="P7" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="58" t="s">
+      <c r="Q7" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="56">
+      <c r="S7" s="45">
         <v>2</v>
       </c>
-      <c r="T7" s="57" t="s">
+      <c r="T7" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="75"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="56">
+      <c r="U7" s="61"/>
+      <c r="X7" s="45">
         <v>2</v>
       </c>
-      <c r="Y7" s="69" t="s">
+      <c r="Y7" s="55" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="44" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="I8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="P8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="59" t="s">
+      <c r="Q8" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="56">
-        <v>1</v>
-      </c>
-      <c r="T8" s="57" t="s">
+      <c r="S8" s="45">
+        <v>1</v>
+      </c>
+      <c r="T8" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="U8" s="75" t="s">
+      <c r="U8" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="56">
+      <c r="X8" s="45">
         <v>3</v>
       </c>
-      <c r="Y8" s="69" t="s">
+      <c r="Y8" s="55" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="44" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="I9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="P9" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" s="60" t="s">
+      <c r="Q9" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="56">
+      <c r="S9" s="45">
         <v>0</v>
       </c>
-      <c r="T9" s="57" t="s">
+      <c r="T9" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="U9" s="75"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="56">
+      <c r="U9" s="61"/>
+      <c r="X9" s="45">
         <v>4</v>
       </c>
-      <c r="Y9" s="69" t="s">
+      <c r="Y9" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="16">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="22"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="72" t="s">
+      <c r="M10" s="7"/>
+      <c r="P10" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="53" t="s">
+      <c r="Q10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="61">
+      <c r="S10" s="50">
         <v>-1</v>
       </c>
-      <c r="T10" s="62" t="s">
+      <c r="T10" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="U10" s="64"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="61">
+      <c r="U10" s="52"/>
+      <c r="X10" s="50">
         <v>5</v>
       </c>
-      <c r="Y10" s="68" t="s">
+      <c r="Y10" s="49" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="16">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="24" t="s">
+      <c r="L11" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="17" t="s">
+      <c r="M11" s="7"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="7"/>
+      <c r="U11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
       <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1976,7 +1846,7 @@
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="7" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -1985,10 +1855,10 @@
       <c r="K12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="7" t="s">
         <v>68</v>
       </c>
       <c r="N12" s="4" t="s">
@@ -1997,10 +1867,10 @@
       <c r="O12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="22" t="s">
+      <c r="P12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="57" t="s">
+      <c r="Q12" s="46" t="s">
         <v>72</v>
       </c>
       <c r="R12" s="4" t="s">
@@ -2029,8 +1899,7 @@
       </c>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13">
+      <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2039,51 +1908,43 @@
       <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G13" s="4">
         <v>2</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="25">
-        <v>1</v>
-      </c>
-      <c r="J13" s="26" t="s">
+      <c r="I13" s="17">
+        <v>1</v>
+      </c>
+      <c r="J13" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="27">
-        <v>1</v>
-      </c>
-      <c r="L13" s="28" t="s">
+      <c r="K13" s="19">
+        <v>1</v>
+      </c>
+      <c r="L13" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="M13" s="29"/>
-      <c r="N13" s="45" t="s">
+      <c r="M13" s="21"/>
+      <c r="N13" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="O13" s="46">
+      <c r="O13" s="37">
         <v>0</v>
       </c>
-      <c r="P13" s="47" t="s">
+      <c r="P13" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="Q13" s="14"/>
+      <c r="Q13" s="1"/>
       <c r="R13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
+      <c r="U13" s="53"/>
       <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13">
+      <c r="B14" s="3">
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2092,43 +1953,39 @@
       <c r="D14" s="4">
         <v>0</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="1">
         <v>4</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="25">
+      <c r="I14" s="17">
         <v>0</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="27">
-        <v>1</v>
-      </c>
-      <c r="L14" s="29" t="s">
+      <c r="K14" s="19">
+        <v>1</v>
+      </c>
+      <c r="L14" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M14" s="29"/>
-      <c r="N14" s="45" t="s">
+      <c r="M14" s="21"/>
+      <c r="N14" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="O14" s="46">
+      <c r="O14" s="37">
         <v>2</v>
       </c>
-      <c r="P14" s="48" t="s">
+      <c r="P14" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="14"/>
+      <c r="Q14" s="1"/>
       <c r="R14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="65"/>
+      <c r="U14" s="53"/>
       <c r="V14" s="4" t="s">
         <v>90</v>
       </c>
@@ -2136,11 +1993,9 @@
         <v>91</v>
       </c>
       <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13">
+      <c r="B15" s="3">
         <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2149,53 +2004,46 @@
       <c r="D15" s="4">
         <v>1</v>
       </c>
-      <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
         <v>93</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="30">
-        <v>1</v>
-      </c>
-      <c r="J15" s="27" t="s">
+      <c r="I15" s="22">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="26">
-        <v>1</v>
-      </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="29"/>
+      <c r="K15" s="18">
+        <v>1</v>
+      </c>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21"/>
       <c r="N15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="O15" s="49">
+      <c r="O15" s="39">
         <v>6</v>
       </c>
-      <c r="P15" s="47" t="s">
+      <c r="P15" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="Q15" s="14"/>
+      <c r="Q15" s="1"/>
       <c r="R15" s="4" t="s">
         <v>95</v>
       </c>
       <c r="S15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="T15" s="4"/>
       <c r="U15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
       <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13">
+      <c r="B16" s="3">
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2207,52 +2055,45 @@
       <c r="E16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="13">
         <v>2</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="30">
-        <v>1</v>
-      </c>
-      <c r="J16" s="31" t="s">
+      <c r="I16" s="22">
+        <v>1</v>
+      </c>
+      <c r="J16" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="27">
-        <v>1</v>
-      </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29" t="s">
+      <c r="K16" s="19">
+        <v>1</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="N16" s="45" t="s">
+      <c r="N16" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="O16" s="49">
+      <c r="O16" s="39">
         <v>6</v>
       </c>
-      <c r="P16" s="48" t="s">
+      <c r="P16" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="Q16" s="14"/>
+      <c r="Q16" s="1"/>
       <c r="R16" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="49" t="s">
+      <c r="U16" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
     </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13">
+    <row r="17" spans="1:24">
+      <c r="B17" s="3">
         <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2261,53 +2102,45 @@
       <c r="D17" s="4">
         <v>1</v>
       </c>
-      <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
         <v>105</v>
       </c>
       <c r="G17" s="4">
         <v>4</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="30">
+      <c r="I17" s="22">
         <v>0</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="27">
-        <v>1</v>
-      </c>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29" t="s">
+      <c r="K17" s="19">
+        <v>1</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21" t="s">
         <v>97</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O17" s="18">
         <v>6</v>
       </c>
-      <c r="P17" s="47" t="s">
+      <c r="P17" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="Q17" s="14"/>
+      <c r="Q17" s="1"/>
       <c r="R17" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="49" t="s">
+      <c r="U17" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
       <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13">
+    <row r="18" spans="1:24">
+      <c r="B18" s="3">
         <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -2316,149 +2149,139 @@
       <c r="D18" s="4">
         <v>1</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="1">
         <v>2</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="30">
-        <v>1</v>
-      </c>
-      <c r="J18" s="27" t="s">
+      <c r="I18" s="22">
+        <v>1</v>
+      </c>
+      <c r="J18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="27">
-        <v>1</v>
-      </c>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29" t="s">
+      <c r="K18" s="19">
+        <v>1</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="N18" s="45" t="s">
+      <c r="N18" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="O18" s="26">
+      <c r="O18" s="18">
         <v>6</v>
       </c>
-      <c r="P18" s="47" t="s">
+      <c r="P18" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="45" t="s">
+      <c r="Q18" s="1"/>
+      <c r="R18" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
       <c r="U18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
       <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
     </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="13">
+    <row r="19" spans="1:24">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3">
         <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>2</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="19">
         <v>0</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="19">
         <v>0</v>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="29" t="s">
+      <c r="L19" s="19"/>
+      <c r="M19" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="O19" s="32">
+      <c r="O19" s="19">
         <v>6</v>
       </c>
-      <c r="P19" s="47" t="s">
+      <c r="P19" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="R19" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="S19" s="4" t="s">
         <v>114</v>
       </c>
       <c r="U19" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="X19" s="5"/>
+      <c r="X19" s="4"/>
     </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="13">
+    <row r="20" spans="1:24">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3">
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>0</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>2</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="19">
         <v>-1</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K20" s="19">
         <v>-1</v>
       </c>
-      <c r="L20" s="27"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="5" t="s">
+      <c r="L20" s="19"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="4">
         <v>3</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P20" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="X20" s="5"/>
+      <c r="X20" s="4"/>
     </row>
-    <row r="21" spans="1:25" s="1" customFormat="1">
-      <c r="B21" s="15">
+    <row r="21" spans="1:24" s="1" customFormat="1">
+      <c r="B21" s="10">
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
       <c r="F21" s="1" t="s">
         <v>43</v>
       </c>
@@ -2477,7 +2300,7 @@
       <c r="L21" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M21" s="29"/>
+      <c r="M21" s="21"/>
       <c r="N21" s="1" t="s">
         <v>122</v>
       </c>
@@ -2491,8 +2314,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="1" customFormat="1">
-      <c r="B22" s="15">
+    <row r="22" spans="1:24" s="1" customFormat="1">
+      <c r="B22" s="10">
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2519,7 +2342,7 @@
       <c r="L22" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="M22" s="29"/>
+      <c r="M22" s="21"/>
       <c r="N22" s="1" t="s">
         <v>127</v>
       </c>
@@ -2536,8 +2359,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:25" s="1" customFormat="1">
-      <c r="B23" s="15">
+    <row r="23" spans="1:24" s="1" customFormat="1">
+      <c r="B23" s="10">
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2564,7 +2387,7 @@
       <c r="L23" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M23" s="29"/>
+      <c r="M23" s="21"/>
       <c r="N23" s="1" t="s">
         <v>132</v>
       </c>
@@ -2581,8 +2404,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="1" customFormat="1">
-      <c r="B24" s="15">
+    <row r="24" spans="1:24" s="1" customFormat="1">
+      <c r="B24" s="10">
         <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2600,13 +2423,13 @@
       <c r="I24" s="1">
         <v>1</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="J24" s="18" t="s">
         <v>81</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
       </c>
-      <c r="M24" s="29" t="s">
+      <c r="M24" s="21" t="s">
         <v>137</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -2625,8 +2448,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="1" customFormat="1">
-      <c r="B25" s="15">
+    <row r="25" spans="1:24" s="1" customFormat="1">
+      <c r="B25" s="10">
         <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2644,13 +2467,13 @@
       <c r="I25" s="1">
         <v>0</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="18" t="s">
         <v>81</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
       </c>
-      <c r="M25" s="29" t="s">
+      <c r="M25" s="21" t="s">
         <v>137</v>
       </c>
       <c r="N25" s="1" t="s">
@@ -2666,8 +2489,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:25" s="1" customFormat="1">
-      <c r="B26" s="15">
+    <row r="26" spans="1:24" s="1" customFormat="1">
+      <c r="B26" s="10">
         <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2704,8 +2527,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:25" s="1" customFormat="1">
-      <c r="B27" s="15">
+    <row r="27" spans="1:24" s="1" customFormat="1">
+      <c r="B27" s="10">
         <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2745,108 +2568,108 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="1" customFormat="1">
-      <c r="B28" s="15">
+    <row r="28" spans="1:24" s="1" customFormat="1">
+      <c r="B28" s="10">
         <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="16">
-        <v>1</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="19" t="s">
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="11">
         <v>2</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="33">
+      <c r="H28" s="11"/>
+      <c r="I28" s="24">
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="16">
-        <v>1</v>
-      </c>
-      <c r="L28" s="34" t="s">
+      <c r="K28" s="11">
+        <v>1</v>
+      </c>
+      <c r="L28" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="M28" s="35" t="s">
+      <c r="M28" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="N28" s="50" t="s">
+      <c r="N28" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="O28" s="19">
+      <c r="O28" s="14">
         <v>0</v>
       </c>
-      <c r="P28" s="51" t="s">
+      <c r="P28" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="16" t="s">
+      <c r="Q28" s="14"/>
+      <c r="R28" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="S28" s="16" t="s">
+      <c r="S28" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:25" s="1" customFormat="1">
-      <c r="B29" s="15">
+    <row r="29" spans="1:24" s="1" customFormat="1">
+      <c r="B29" s="10">
         <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="11">
         <v>2</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="19" t="s">
+      <c r="E29" s="11"/>
+      <c r="F29" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="14">
         <v>2</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="33">
-        <v>1</v>
-      </c>
-      <c r="J29" s="16" t="s">
+      <c r="H29" s="11"/>
+      <c r="I29" s="24">
+        <v>1</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="K29" s="16">
-        <v>1</v>
-      </c>
-      <c r="L29" s="35" t="s">
+      <c r="K29" s="11">
+        <v>1</v>
+      </c>
+      <c r="L29" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="M29" s="52" t="s">
+      <c r="M29" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="N29" s="50" t="s">
+      <c r="N29" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="O29" s="19">
+      <c r="O29" s="14">
         <v>0</v>
       </c>
-      <c r="P29" s="51" t="s">
+      <c r="P29" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="16" t="s">
+      <c r="Q29" s="14"/>
+      <c r="R29" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="S29" s="16" t="s">
+      <c r="S29" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:25" s="1" customFormat="1">
-      <c r="B30" s="15">
+    <row r="30" spans="1:24" s="1" customFormat="1">
+      <c r="B30" s="10">
         <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2861,16 +2684,16 @@
       <c r="G30" s="1">
         <v>1</v>
       </c>
-      <c r="I30" s="33">
-        <v>1</v>
-      </c>
-      <c r="J30" s="26" t="s">
+      <c r="I30" s="24">
+        <v>1</v>
+      </c>
+      <c r="J30" s="18" t="s">
         <v>81</v>
       </c>
       <c r="K30" s="1">
         <v>1</v>
       </c>
-      <c r="L30" s="14" t="s">
+      <c r="L30" s="1" t="s">
         <v>164</v>
       </c>
       <c r="N30" s="1" t="s">
@@ -2889,8 +2712,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:25" s="1" customFormat="1">
-      <c r="B31" s="15">
+    <row r="31" spans="1:24" s="1" customFormat="1">
+      <c r="B31" s="10">
         <v>19</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2899,7 +2722,7 @@
       <c r="D31" s="1">
         <v>0</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="14" t="s">
         <v>80</v>
       </c>
       <c r="G31" s="1">
@@ -2914,10 +2737,10 @@
       <c r="K31" s="1">
         <v>1</v>
       </c>
-      <c r="L31" s="35" t="s">
+      <c r="L31" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="M31" s="29" t="s">
+      <c r="M31" s="21" t="s">
         <v>170</v>
       </c>
       <c r="N31" s="1" t="s">
@@ -2933,7 +2756,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:25" s="1" customFormat="1"/>
+    <row r="32" spans="1:24" s="1" customFormat="1"/>
     <row r="33" s="1" customFormat="1"/>
     <row r="34" s="1" customFormat="1"/>
     <row r="35" customFormat="1" ht="15"/>
